--- a/flows/OUNZ_fund_flow_data.xlsx
+++ b/flows/OUNZ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2462"/>
+  <dimension ref="A1:B2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25055,6 +25055,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2464" t="n">
+        <v>5.8729796</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2470" t="n">
+        <v>0.15402709</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2472" t="n">
+        <v>-0.20964892</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2480" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
